--- a/Document/10.ProjectSprintBacklog.xlsx
+++ b/Document/10.ProjectSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\KLTN\XDWGMVTT7618\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799C1C0-0986-4E2A-91BE-5F3E2859DE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3B8A3-AB14-43A4-A665-57BF0C4E9212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="175">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>TỔNG KẾT</t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái đơn hàng</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1262,42 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,50 +1334,14 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5116,14 +5119,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="37.200000000000003" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="92" t="s">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5145,14 +5148,14 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="95"/>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="77"/>
       <c r="E2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5174,14 +5177,14 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="17.399999999999999">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78">
         <v>45747</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="5"/>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
@@ -5203,14 +5206,14 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78">
         <v>45760</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="5"/>
       <c r="J4" s="2"/>
       <c r="K4" s="5"/>
@@ -5258,12 +5261,12 @@
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
       <c r="A6" s="10"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="J6" s="59"/>
       <c r="K6" s="11" t="s">
         <v>26</v>
@@ -5502,10 +5505,10 @@
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
       <c r="A13" s="10"/>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="48">
         <f>SUM(D8:D12)</f>
         <v>200</v>
@@ -5655,13 +5658,13 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.8">
-      <c r="A17" s="77">
-        <v>1</v>
-      </c>
-      <c r="B17" s="90" t="s">
+      <c r="A17" s="89">
+        <v>1</v>
+      </c>
+      <c r="B17" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="34" t="s">
         <v>39</v>
       </c>
@@ -5715,11 +5718,11 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="16.8">
-      <c r="A18" s="77"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
@@ -5773,11 +5776,11 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="16.8">
-      <c r="A19" s="77"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="56" t="s">
         <v>12</v>
       </c>
@@ -5831,8 +5834,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="16.8">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -5891,8 +5894,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.8">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="37" t="s">
         <v>64</v>
       </c>
@@ -5949,8 +5952,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="16.8">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="37" t="s">
         <v>65</v>
       </c>
@@ -6007,8 +6010,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="16.8">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="37" t="s">
         <v>42</v>
       </c>
@@ -6065,8 +6068,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="16.8">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="37"/>
       <c r="D24" s="32"/>
       <c r="E24" s="28"/>
@@ -6089,8 +6092,8 @@
       <c r="T24" s="25"/>
     </row>
     <row r="25" spans="1:20" ht="16.8">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="37" t="s">
         <v>66</v>
       </c>
@@ -6147,8 +6150,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.8">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="37" t="s">
         <v>67</v>
       </c>
@@ -6205,8 +6208,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.8">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="37" t="s">
         <v>88</v>
       </c>
@@ -6263,8 +6266,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.8">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="37" t="s">
         <v>43</v>
       </c>
@@ -6321,8 +6324,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="28"/>
@@ -6345,8 +6348,8 @@
       <c r="T29" s="25"/>
     </row>
     <row r="30" spans="1:20" ht="16.8">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="37" t="s">
@@ -6405,8 +6408,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="16.8">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="37" t="s">
         <v>68</v>
       </c>
@@ -6463,8 +6466,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="16.8">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="37" t="s">
         <v>69</v>
       </c>
@@ -6521,8 +6524,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.8">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
@@ -6545,8 +6548,8 @@
       <c r="T33" s="25"/>
     </row>
     <row r="34" spans="1:20" ht="16.8">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="37" t="s">
         <v>70</v>
       </c>
@@ -6603,8 +6606,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="16.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="37" t="s">
         <v>85</v>
       </c>
@@ -6661,8 +6664,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.8">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="37" t="s">
         <v>71</v>
       </c>
@@ -6719,8 +6722,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="37" t="s">
         <v>89</v>
       </c>
@@ -6777,8 +6780,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="16.8">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="37" t="s">
         <v>41</v>
       </c>
@@ -6835,8 +6838,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="16.8">
-      <c r="A39" s="77"/>
-      <c r="B39" s="78" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="37" t="s">
@@ -6895,8 +6898,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="16.8">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="37" t="s">
         <v>72</v>
       </c>
@@ -6953,8 +6956,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="16.8">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="37"/>
       <c r="D41" s="29"/>
       <c r="E41" s="26"/>
@@ -6977,8 +6980,8 @@
       <c r="T41" s="25"/>
     </row>
     <row r="42" spans="1:20" ht="16.8">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="37" t="s">
         <v>73</v>
       </c>
@@ -7035,8 +7038,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="16.8">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="37"/>
       <c r="D43" s="29"/>
       <c r="E43" s="26"/>
@@ -7059,8 +7062,8 @@
       <c r="T43" s="25"/>
     </row>
     <row r="44" spans="1:20" ht="16.8">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="37" t="s">
         <v>75</v>
       </c>
@@ -7117,8 +7120,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.8">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="37"/>
       <c r="D45" s="33"/>
       <c r="E45" s="26"/>
@@ -7141,8 +7144,8 @@
       <c r="T45" s="25"/>
     </row>
     <row r="46" spans="1:20" ht="16.8">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="37" t="s">
         <v>44</v>
       </c>
@@ -7199,8 +7202,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="16.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="37"/>
       <c r="D47" s="34"/>
       <c r="E47" s="26"/>
@@ -7231,8 +7234,8 @@
       <c r="T47" s="25"/>
     </row>
     <row r="48" spans="1:20" ht="16.8">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="37" t="s">
         <v>74</v>
       </c>
@@ -7289,8 +7292,8 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="16.8">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="37"/>
       <c r="D49" s="34"/>
       <c r="E49" s="26"/>
@@ -7321,8 +7324,8 @@
       <c r="T49" s="25"/>
     </row>
     <row r="50" spans="1:20" ht="16.8">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="37" t="s">
         <v>101</v>
       </c>
@@ -7379,8 +7382,8 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="16.8">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="37" t="s">
         <v>47</v>
       </c>
@@ -7437,8 +7440,8 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="16.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="37" t="s">
         <v>48</v>
       </c>
@@ -7495,8 +7498,8 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="16.8">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="37" t="s">
         <v>53</v>
       </c>
@@ -7553,8 +7556,8 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="16.8">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="37" t="s">
         <v>84</v>
       </c>
@@ -7611,8 +7614,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="16.8">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="37"/>
       <c r="D55" s="29"/>
       <c r="E55" s="26"/>
@@ -7635,8 +7638,8 @@
       <c r="T55" s="25"/>
     </row>
     <row r="56" spans="1:20" ht="16.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="37" t="s">
         <v>76</v>
       </c>
@@ -7693,8 +7696,8 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="16.8">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="37"/>
       <c r="D57" s="29"/>
       <c r="E57" s="26"/>
@@ -7723,8 +7726,8 @@
       <c r="T57" s="25"/>
     </row>
     <row r="58" spans="1:20" ht="16.8">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="37" t="s">
         <v>90</v>
       </c>
@@ -7781,8 +7784,8 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="16.8">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="37"/>
       <c r="D59" s="29"/>
       <c r="E59" s="26"/>
@@ -7809,8 +7812,8 @@
       <c r="T59" s="25"/>
     </row>
     <row r="60" spans="1:20" ht="16.8">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78" t="s">
+      <c r="A60" s="89"/>
+      <c r="B60" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="37" t="s">
@@ -7869,8 +7872,8 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="16.8">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="37" t="s">
         <v>78</v>
       </c>
@@ -7927,8 +7930,8 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="16.8">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="37" t="s">
         <v>87</v>
       </c>
@@ -7985,8 +7988,8 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="16.8">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="37" t="s">
         <v>79</v>
       </c>
@@ -8043,8 +8046,8 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="16.8">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="37" t="s">
         <v>83</v>
       </c>
@@ -8101,8 +8104,8 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="16.8">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="37" t="s">
         <v>77</v>
       </c>
@@ -8159,8 +8162,8 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="16.8">
-      <c r="A66" s="77"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="37" t="s">
         <v>91</v>
       </c>
@@ -8217,8 +8220,8 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="16.8">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="37" t="s">
         <v>51</v>
       </c>
@@ -8275,8 +8278,8 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="16.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="37" t="s">
@@ -8335,8 +8338,8 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="16.8">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="37" t="s">
         <v>81</v>
       </c>
@@ -8393,8 +8396,8 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="16.8">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="37" t="s">
         <v>86</v>
       </c>
@@ -8451,8 +8454,8 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="16.8">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="37" t="s">
         <v>80</v>
       </c>
@@ -8509,8 +8512,8 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="16.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="37" t="s">
         <v>82</v>
       </c>
@@ -8567,8 +8570,8 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="16.8">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="37" t="s">
         <v>93</v>
       </c>
@@ -8625,8 +8628,8 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="16.8">
-      <c r="A74" s="77"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="37" t="s">
         <v>92</v>
       </c>
@@ -8683,8 +8686,8 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="16.8">
-      <c r="A75" s="77"/>
-      <c r="B75" s="81" t="s">
+      <c r="A75" s="89"/>
+      <c r="B75" s="93" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="37" t="s">
@@ -8743,8 +8746,8 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="16.8">
-      <c r="A76" s="77"/>
-      <c r="B76" s="81"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="37" t="s">
         <v>104</v>
       </c>
@@ -8801,8 +8804,8 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="16.8">
-      <c r="A77" s="77"/>
-      <c r="B77" s="81"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="37" t="s">
         <v>94</v>
       </c>
@@ -8859,8 +8862,8 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="16.8">
-      <c r="A78" s="77"/>
-      <c r="B78" s="81"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="37" t="s">
         <v>95</v>
       </c>
@@ -8917,8 +8920,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.8">
-      <c r="A79" s="77"/>
-      <c r="B79" s="81"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="37" t="s">
         <v>96</v>
       </c>
@@ -8975,8 +8978,8 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="16.8">
-      <c r="A80" s="77"/>
-      <c r="B80" s="81"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="37" t="s">
         <v>97</v>
       </c>
@@ -9033,8 +9036,8 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="16.8">
-      <c r="A81" s="77"/>
-      <c r="B81" s="81"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="37" t="s">
         <v>98</v>
       </c>
@@ -9091,8 +9094,8 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="16.8">
-      <c r="A82" s="77"/>
-      <c r="B82" s="78" t="s">
+      <c r="A82" s="89"/>
+      <c r="B82" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="38" t="s">
@@ -9151,8 +9154,8 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="16.8">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="38" t="s">
         <v>9</v>
       </c>
@@ -9209,19 +9212,19 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="16.8">
-      <c r="A84" s="77"/>
-      <c r="B84" s="76" t="s">
+      <c r="A84" s="89"/>
+      <c r="B84" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="88"/>
       <c r="D84" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="82">
+      <c r="E84" s="94">
         <f>SUM(E17:E83)</f>
         <v>200</v>
       </c>
-      <c r="F84" s="83"/>
+      <c r="F84" s="95"/>
       <c r="G84" s="31">
         <f>SUM(G17:G83)</f>
         <v>178</v>
@@ -9280,17 +9283,17 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="16.8">
-      <c r="A85" s="77"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="88"/>
       <c r="D85" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="82">
+      <c r="E85" s="94">
         <f>SUM(F17:F83)</f>
         <v>257</v>
       </c>
-      <c r="F85" s="83"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="31">
         <f>SUM(G17:G83)</f>
         <v>178</v>
@@ -9350,33 +9353,33 @@
     </row>
     <row r="89" spans="1:20" ht="20.399999999999999">
       <c r="A89" s="1"/>
-      <c r="D89" s="79" t="s">
+      <c r="D89" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="80"/>
-      <c r="S89" s="80"/>
-      <c r="T89" s="80"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="92"/>
+      <c r="L89" s="92"/>
+      <c r="M89" s="92"/>
+      <c r="N89" s="92"/>
+      <c r="O89" s="92"/>
+      <c r="P89" s="92"/>
+      <c r="Q89" s="92"/>
+      <c r="R89" s="92"/>
+      <c r="S89" s="92"/>
+      <c r="T89" s="92"/>
     </row>
     <row r="90" spans="1:20" ht="33" customHeight="1">
       <c r="A90" s="1"/>
       <c r="D90" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="72"/>
-      <c r="F90" s="73"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="85"/>
       <c r="G90" s="64">
         <f t="shared" ref="G90:T90" si="2">G16</f>
         <v>45747</v>
@@ -9438,11 +9441,11 @@
       <c r="D91" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="74">
+      <c r="E91" s="86">
         <f>E84</f>
         <v>200</v>
       </c>
-      <c r="F91" s="75"/>
+      <c r="F91" s="87"/>
       <c r="G91" s="21">
         <f>G84</f>
         <v>178</v>
@@ -9504,11 +9507,11 @@
       <c r="D92" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="74">
+      <c r="E92" s="86">
         <f>E85</f>
         <v>257</v>
       </c>
-      <c r="F92" s="75"/>
+      <c r="F92" s="87"/>
       <c r="G92" s="21">
         <f>G85</f>
         <v>178</v>
@@ -9568,19 +9571,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="E92:F92"/>
@@ -9596,6 +9586,19 @@
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9609,8 +9612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D6D6E-ADC4-4301-964F-C85181198D94}">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9624,14 +9627,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34.799999999999997" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="92" t="s">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -9657,14 +9660,14 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
       <c r="C2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="5"/>
@@ -9689,14 +9692,14 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="17.399999999999999">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78">
         <v>45761</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
@@ -9721,14 +9724,14 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78">
         <v>45774</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -9780,12 +9783,12 @@
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
       <c r="A6" s="10"/>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="I6" s="2"/>
       <c r="J6" s="59"/>
       <c r="K6" s="11" t="s">
@@ -10028,10 +10031,10 @@
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
       <c r="A13" s="10"/>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="48">
         <f>SUM(D8:D12)</f>
         <v>256</v>
@@ -10182,13 +10185,13 @@
       <c r="X16" s="66"/>
     </row>
     <row r="17" spans="1:24" ht="16.8">
-      <c r="A17" s="77">
-        <v>2</v>
-      </c>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="89">
+        <v>2</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="34" t="s">
         <v>39</v>
       </c>
@@ -10243,11 +10246,11 @@
       <c r="X17" s="66"/>
     </row>
     <row r="18" spans="1:24" ht="16.8">
-      <c r="A18" s="77"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
@@ -10302,11 +10305,11 @@
       <c r="X18" s="66"/>
     </row>
     <row r="19" spans="1:24" ht="16.8">
-      <c r="A19" s="77"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="56" t="s">
         <v>12</v>
       </c>
@@ -10361,8 +10364,8 @@
       <c r="X19" s="66"/>
     </row>
     <row r="20" spans="1:24" ht="16.8">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -10422,8 +10425,8 @@
       <c r="X20" s="66"/>
     </row>
     <row r="21" spans="1:24" ht="16.8">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="37" t="s">
         <v>108</v>
       </c>
@@ -10481,8 +10484,8 @@
       <c r="X21" s="66"/>
     </row>
     <row r="22" spans="1:24" ht="16.8">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="37" t="s">
         <v>109</v>
       </c>
@@ -10540,8 +10543,8 @@
       <c r="X22" s="66"/>
     </row>
     <row r="23" spans="1:24" ht="16.8">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="37" t="s">
         <v>110</v>
       </c>
@@ -10599,8 +10602,8 @@
       <c r="X23" s="66"/>
     </row>
     <row r="24" spans="1:24" ht="16.8">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="37" t="s">
         <v>111</v>
       </c>
@@ -10658,10 +10661,10 @@
       <c r="X24" s="66"/>
     </row>
     <row r="25" spans="1:24" ht="16.8">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="37" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>37</v>
@@ -10717,8 +10720,8 @@
       <c r="X25" s="66"/>
     </row>
     <row r="26" spans="1:24" ht="16.8">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="37" t="s">
         <v>112</v>
       </c>
@@ -10775,8 +10778,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16.8">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="37" t="s">
         <v>114</v>
       </c>
@@ -10833,8 +10836,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.8">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="37" t="s">
         <v>115</v>
       </c>
@@ -10891,8 +10894,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="37" t="s">
         <v>116</v>
       </c>
@@ -10949,8 +10952,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.8">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="37" t="s">
         <v>135</v>
       </c>
@@ -11007,8 +11010,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.8">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="37" t="s">
@@ -11067,8 +11070,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.8">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="37" t="s">
         <v>108</v>
       </c>
@@ -11125,8 +11128,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.8">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="37" t="s">
         <v>109</v>
       </c>
@@ -11183,8 +11186,8 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="16.8">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="37" t="s">
         <v>110</v>
       </c>
@@ -11241,8 +11244,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="16.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="37" t="s">
         <v>111</v>
       </c>
@@ -11299,8 +11302,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.8">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="37" t="s">
         <v>113</v>
       </c>
@@ -11357,8 +11360,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="37" t="s">
         <v>112</v>
       </c>
@@ -11415,8 +11418,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="16.8">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="37" t="s">
         <v>114</v>
       </c>
@@ -11473,8 +11476,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="16.8">
-      <c r="A39" s="77"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="37" t="s">
         <v>115</v>
       </c>
@@ -11531,8 +11534,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="16.8">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="37" t="s">
         <v>116</v>
       </c>
@@ -11589,8 +11592,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="16.8">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="37" t="s">
         <v>136</v>
       </c>
@@ -11647,8 +11650,8 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="16.8">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78" t="s">
+      <c r="A42" s="89"/>
+      <c r="B42" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="37" t="s">
@@ -11707,8 +11710,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="16.8">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="37"/>
       <c r="D43" s="67"/>
       <c r="E43" s="26"/>
@@ -11733,8 +11736,8 @@
       <c r="T43" s="25"/>
     </row>
     <row r="44" spans="1:20" ht="16.8">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="37" t="s">
         <v>118</v>
       </c>
@@ -11791,8 +11794,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.8">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="37"/>
       <c r="D45" s="68"/>
       <c r="E45" s="26"/>
@@ -11819,8 +11822,8 @@
       <c r="T45" s="25"/>
     </row>
     <row r="46" spans="1:20" ht="16.8">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="37" t="s">
         <v>119</v>
       </c>
@@ -11877,8 +11880,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="16.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="37"/>
       <c r="D47" s="68"/>
       <c r="E47" s="26"/>
@@ -11903,8 +11906,8 @@
       <c r="T47" s="25"/>
     </row>
     <row r="48" spans="1:20" ht="16.8">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="37" t="s">
         <v>120</v>
       </c>
@@ -11961,8 +11964,8 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="16.8">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="37" t="s">
         <v>121</v>
       </c>
@@ -12019,8 +12022,8 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="16.8">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="37" t="s">
         <v>122</v>
       </c>
@@ -12077,8 +12080,8 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="16.8">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="37" t="s">
         <v>123</v>
       </c>
@@ -12135,8 +12138,8 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="16.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="37" t="s">
         <v>124</v>
       </c>
@@ -12193,8 +12196,8 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="16.8">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="37" t="s">
         <v>106</v>
       </c>
@@ -12251,8 +12254,8 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="16.8">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="37" t="s">
         <v>126</v>
       </c>
@@ -12309,8 +12312,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="16.8">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="37"/>
       <c r="D55" s="29"/>
       <c r="E55" s="26"/>
@@ -12333,8 +12336,8 @@
       <c r="T55" s="25"/>
     </row>
     <row r="56" spans="1:20" ht="16.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="37" t="s">
         <v>125</v>
       </c>
@@ -12391,8 +12394,8 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="16.8">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="37"/>
       <c r="D57" s="30"/>
       <c r="E57" s="26"/>
@@ -12415,8 +12418,8 @@
       <c r="T57" s="25"/>
     </row>
     <row r="58" spans="1:20" ht="16.8">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="37" t="s">
         <v>127</v>
       </c>
@@ -12473,8 +12476,8 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="16.8">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="37" t="s">
         <v>128</v>
       </c>
@@ -12531,8 +12534,8 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="16.8">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="37"/>
       <c r="D60" s="29"/>
       <c r="E60" s="26"/>
@@ -12565,8 +12568,8 @@
       <c r="T60" s="25"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="37" t="s">
         <v>146</v>
       </c>
@@ -12623,8 +12626,8 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="37"/>
       <c r="D62" s="29"/>
       <c r="E62" s="26"/>
@@ -12657,8 +12660,8 @@
       <c r="T62" s="25"/>
     </row>
     <row r="63" spans="1:20" ht="16.8">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="37" t="s">
         <v>132</v>
       </c>
@@ -12715,8 +12718,8 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="16.8">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="37" t="s">
         <v>129</v>
       </c>
@@ -12773,8 +12776,8 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="16.8">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="37" t="s">
         <v>130</v>
       </c>
@@ -12831,8 +12834,8 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="16.8">
-      <c r="A66" s="77"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="37" t="s">
         <v>131</v>
       </c>
@@ -12889,8 +12892,8 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="16.8">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78" t="s">
+      <c r="A67" s="89"/>
+      <c r="B67" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="37" t="s">
@@ -12949,8 +12952,8 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="16.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="37" t="s">
         <v>108</v>
       </c>
@@ -13007,8 +13010,8 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="16.8">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="37" t="s">
         <v>109</v>
       </c>
@@ -13065,8 +13068,8 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="16.8">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="37" t="s">
         <v>110</v>
       </c>
@@ -13123,8 +13126,8 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="16.8">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="37" t="s">
         <v>111</v>
       </c>
@@ -13181,8 +13184,8 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="16.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="37" t="s">
         <v>113</v>
       </c>
@@ -13239,8 +13242,8 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="16.8">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="37" t="s">
         <v>112</v>
       </c>
@@ -13297,8 +13300,8 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="16.8">
-      <c r="A74" s="77"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="37" t="s">
         <v>114</v>
       </c>
@@ -13355,8 +13358,8 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="16.8">
-      <c r="A75" s="77"/>
-      <c r="B75" s="78"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="37" t="s">
         <v>115</v>
       </c>
@@ -13413,8 +13416,8 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="16.8">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="37" t="s">
         <v>116</v>
       </c>
@@ -13471,8 +13474,8 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="16.8">
-      <c r="A77" s="77"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="37" t="s">
         <v>51</v>
       </c>
@@ -13529,8 +13532,8 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="16.8">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78" t="s">
+      <c r="A78" s="89"/>
+      <c r="B78" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C78" s="37" t="s">
@@ -13589,8 +13592,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.8">
-      <c r="A79" s="77"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="37"/>
       <c r="D79" s="32"/>
       <c r="E79" s="27"/>
@@ -13613,8 +13616,8 @@
       <c r="T79" s="25"/>
     </row>
     <row r="80" spans="1:20" ht="16.8">
-      <c r="A80" s="77"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="37" t="s">
         <v>108</v>
       </c>
@@ -13671,8 +13674,8 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="16.8">
-      <c r="A81" s="77"/>
-      <c r="B81" s="78"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="37"/>
       <c r="D81" s="32"/>
       <c r="E81" s="27"/>
@@ -13695,8 +13698,8 @@
       <c r="T81" s="25"/>
     </row>
     <row r="82" spans="1:20" ht="16.8">
-      <c r="A82" s="77"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
       <c r="C82" s="37" t="s">
         <v>109</v>
       </c>
@@ -13753,8 +13756,8 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="16.8">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
       <c r="C83" s="37" t="s">
         <v>110</v>
       </c>
@@ -13811,8 +13814,8 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="16.8">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="37" t="s">
         <v>111</v>
       </c>
@@ -13869,8 +13872,8 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="16.8">
-      <c r="A85" s="77"/>
-      <c r="B85" s="78"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="37" t="s">
         <v>113</v>
       </c>
@@ -13927,8 +13930,8 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="16.8">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="37" t="s">
         <v>112</v>
       </c>
@@ -13985,8 +13988,8 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="16.8">
-      <c r="A87" s="77"/>
-      <c r="B87" s="78"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="37"/>
       <c r="D87" s="32"/>
       <c r="E87" s="27"/>
@@ -14009,8 +14012,8 @@
       <c r="T87" s="25"/>
     </row>
     <row r="88" spans="1:20" ht="16.8">
-      <c r="A88" s="77"/>
-      <c r="B88" s="78"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="37" t="s">
         <v>114</v>
       </c>
@@ -14067,8 +14070,8 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="16.8">
-      <c r="A89" s="77"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="89"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="37" t="s">
         <v>115</v>
       </c>
@@ -14125,8 +14128,8 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="16.8">
-      <c r="A90" s="77"/>
-      <c r="B90" s="78"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="37" t="s">
         <v>116</v>
       </c>
@@ -14183,8 +14186,8 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="16.8">
-      <c r="A91" s="77"/>
-      <c r="B91" s="81" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="93" t="s">
         <v>59</v>
       </c>
       <c r="C91" s="37" t="s">
@@ -14243,8 +14246,8 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="16.8">
-      <c r="A92" s="77"/>
-      <c r="B92" s="81"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="93"/>
       <c r="C92" s="37" t="s">
         <v>108</v>
       </c>
@@ -14301,8 +14304,8 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="16.8">
-      <c r="A93" s="77"/>
-      <c r="B93" s="81"/>
+      <c r="A93" s="89"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="37" t="s">
         <v>109</v>
       </c>
@@ -14359,8 +14362,8 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="16.8">
-      <c r="A94" s="77"/>
-      <c r="B94" s="81"/>
+      <c r="A94" s="89"/>
+      <c r="B94" s="93"/>
       <c r="C94" s="37" t="s">
         <v>110</v>
       </c>
@@ -14417,8 +14420,8 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="16.8">
-      <c r="A95" s="77"/>
-      <c r="B95" s="81"/>
+      <c r="A95" s="89"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="37" t="s">
         <v>111</v>
       </c>
@@ -14475,8 +14478,8 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.8">
-      <c r="A96" s="77"/>
-      <c r="B96" s="81"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="93"/>
       <c r="C96" s="37" t="s">
         <v>113</v>
       </c>
@@ -14533,8 +14536,8 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="16.8">
-      <c r="A97" s="77"/>
-      <c r="B97" s="81"/>
+      <c r="A97" s="89"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="37" t="s">
         <v>112</v>
       </c>
@@ -14591,13 +14594,13 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="16.8">
-      <c r="A98" s="77"/>
-      <c r="B98" s="81"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="37" t="s">
         <v>114</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E98" s="27">
         <v>1</v>
@@ -14649,8 +14652,8 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="16.8">
-      <c r="A99" s="77"/>
-      <c r="B99" s="81"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="37" t="s">
         <v>115</v>
       </c>
@@ -14707,13 +14710,13 @@
       </c>
     </row>
     <row r="100" spans="1:20" ht="16.8">
-      <c r="A100" s="77"/>
-      <c r="B100" s="81"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="93"/>
       <c r="C100" s="37" t="s">
         <v>116</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E100" s="27">
         <v>1</v>
@@ -14765,8 +14768,8 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="16.8">
-      <c r="A101" s="77"/>
-      <c r="B101" s="78" t="s">
+      <c r="A101" s="89"/>
+      <c r="B101" s="90" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="37" t="s">
@@ -14825,8 +14828,8 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="16.8">
-      <c r="A102" s="77"/>
-      <c r="B102" s="78"/>
+      <c r="A102" s="89"/>
+      <c r="B102" s="90"/>
       <c r="C102" s="37" t="s">
         <v>20</v>
       </c>
@@ -14883,19 +14886,19 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="16.8">
-      <c r="A103" s="77"/>
-      <c r="B103" s="98" t="s">
+      <c r="A103" s="89"/>
+      <c r="B103" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="98"/>
+      <c r="C103" s="96"/>
       <c r="D103" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E103" s="82">
+      <c r="E103" s="94">
         <f>SUM(E17:E102)</f>
         <v>256</v>
       </c>
-      <c r="F103" s="83"/>
+      <c r="F103" s="95"/>
       <c r="G103" s="31">
         <f>SUM(G17:G102)</f>
         <v>234</v>
@@ -14954,17 +14957,17 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="16.8">
-      <c r="A104" s="77"/>
-      <c r="B104" s="98"/>
-      <c r="C104" s="98"/>
+      <c r="A104" s="89"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="82">
+      <c r="E104" s="94">
         <f>SUM(F17:F102)</f>
         <v>315</v>
       </c>
-      <c r="F104" s="83"/>
+      <c r="F104" s="95"/>
       <c r="G104" s="31">
         <f t="shared" ref="G104:T104" si="0">SUM(G17:G102)</f>
         <v>234</v>
@@ -15024,25 +15027,25 @@
     </row>
     <row r="108" spans="1:20" ht="20.399999999999999">
       <c r="A108" s="1"/>
-      <c r="D108" s="79" t="s">
+      <c r="D108" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E108" s="80"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="80"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="80"/>
-      <c r="J108" s="80"/>
-      <c r="K108" s="80"/>
-      <c r="L108" s="80"/>
-      <c r="M108" s="80"/>
-      <c r="N108" s="80"/>
-      <c r="O108" s="80"/>
-      <c r="P108" s="80"/>
-      <c r="Q108" s="80"/>
-      <c r="R108" s="80"/>
-      <c r="S108" s="80"/>
-      <c r="T108" s="80"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
+      <c r="L108" s="92"/>
+      <c r="M108" s="92"/>
+      <c r="N108" s="92"/>
+      <c r="O108" s="92"/>
+      <c r="P108" s="92"/>
+      <c r="Q108" s="92"/>
+      <c r="R108" s="92"/>
+      <c r="S108" s="92"/>
+      <c r="T108" s="92"/>
     </row>
     <row r="109" spans="1:20" ht="33" customHeight="1">
       <c r="A109" s="1"/>
@@ -15110,11 +15113,11 @@
       <c r="D110" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="74">
+      <c r="E110" s="86">
         <f>E103</f>
         <v>256</v>
       </c>
-      <c r="F110" s="75"/>
+      <c r="F110" s="87"/>
       <c r="G110" s="21">
         <f t="shared" ref="G110:T110" si="2">G103</f>
         <v>234</v>
@@ -15176,11 +15179,11 @@
       <c r="D111" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="74">
+      <c r="E111" s="86">
         <f>E104</f>
         <v>315</v>
       </c>
-      <c r="F111" s="75"/>
+      <c r="F111" s="87"/>
       <c r="G111" s="21">
         <f t="shared" ref="G111:T111" si="3">G104</f>
         <v>234</v>
@@ -15240,6 +15243,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E104:F104"/>
     <mergeCell ref="B103:C104"/>
     <mergeCell ref="A17:A104"/>
@@ -15256,17 +15270,6 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="D108:T108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15279,8 +15282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D44A3FF-3CEC-4C6E-9291-739014F277AD}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="A81:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15294,14 +15297,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34.799999999999997" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="92" t="s">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="93"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -15327,14 +15330,14 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" ht="17.399999999999999">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
       <c r="C2" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="J2" s="1"/>
@@ -15357,14 +15360,14 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="17.399999999999999">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78">
         <v>45775</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="J3" s="2"/>
@@ -15387,14 +15390,14 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86">
+      <c r="B4" s="75"/>
+      <c r="C4" s="78">
         <v>45788</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="5"/>
       <c r="J4" s="2"/>
       <c r="K4" s="5"/>
@@ -15442,12 +15445,12 @@
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
       <c r="A6" s="10"/>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="J6" s="59"/>
       <c r="K6" s="11" t="s">
         <v>26</v>
@@ -15688,10 +15691,10 @@
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
       <c r="A13" s="10"/>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="48">
         <f>SUM(D8:D12)</f>
         <v>255</v>
@@ -15841,13 +15844,13 @@
       <c r="X16" s="66"/>
     </row>
     <row r="17" spans="1:24" ht="16.8">
-      <c r="A17" s="77">
+      <c r="A17" s="89">
         <v>3</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="34" t="s">
         <v>39</v>
       </c>
@@ -15902,11 +15905,11 @@
       <c r="X17" s="66"/>
     </row>
     <row r="18" spans="1:24" ht="16.8">
-      <c r="A18" s="77"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
@@ -15961,11 +15964,11 @@
       <c r="X18" s="66"/>
     </row>
     <row r="19" spans="1:24" ht="16.8">
-      <c r="A19" s="77"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="56" t="s">
         <v>12</v>
       </c>
@@ -16020,8 +16023,8 @@
       <c r="X19" s="66"/>
     </row>
     <row r="20" spans="1:24" ht="16.8">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -16081,8 +16084,8 @@
       <c r="X20" s="66"/>
     </row>
     <row r="21" spans="1:24" ht="16.8">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
@@ -16140,8 +16143,8 @@
       <c r="X21" s="66"/>
     </row>
     <row r="22" spans="1:24" ht="16.8">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="37" t="s">
         <v>147</v>
       </c>
@@ -16199,8 +16202,8 @@
       <c r="X22" s="66"/>
     </row>
     <row r="23" spans="1:24" ht="16.8">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="37" t="s">
         <v>148</v>
       </c>
@@ -16258,8 +16261,8 @@
       <c r="X23" s="66"/>
     </row>
     <row r="24" spans="1:24" ht="16.8">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="37" t="s">
         <v>149</v>
       </c>
@@ -16317,8 +16320,8 @@
       <c r="X24" s="66"/>
     </row>
     <row r="25" spans="1:24" ht="16.8">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="37" t="s">
         <v>151</v>
       </c>
@@ -16376,8 +16379,8 @@
       <c r="X25" s="66"/>
     </row>
     <row r="26" spans="1:24" ht="16.8">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="37" t="s">
         <v>152</v>
       </c>
@@ -16434,8 +16437,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="16.8">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="37" t="s">
         <v>138</v>
       </c>
@@ -16492,8 +16495,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.8">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="90" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="37" t="s">
@@ -16552,8 +16555,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="37" t="s">
         <v>18</v>
       </c>
@@ -16610,8 +16613,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.8">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="37" t="s">
         <v>147</v>
       </c>
@@ -16668,8 +16671,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.8">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="37" t="s">
         <v>148</v>
       </c>
@@ -16726,8 +16729,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.8">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="37" t="s">
         <v>149</v>
       </c>
@@ -16784,8 +16787,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.8">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="37" t="s">
         <v>151</v>
       </c>
@@ -16842,8 +16845,8 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="16.8">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="37" t="s">
         <v>152</v>
       </c>
@@ -16900,8 +16903,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="16.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="37" t="s">
         <v>142</v>
       </c>
@@ -16958,8 +16961,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.8">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="37" t="s">
@@ -17018,8 +17021,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="37" t="s">
         <v>154</v>
       </c>
@@ -17076,8 +17079,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="16.8">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="37" t="s">
         <v>155</v>
       </c>
@@ -17134,8 +17137,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="16.8">
-      <c r="A39" s="77"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="37"/>
       <c r="D39" s="68"/>
       <c r="E39" s="26"/>
@@ -17158,8 +17161,8 @@
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="16.8">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="37" t="s">
         <v>156</v>
       </c>
@@ -17216,8 +17219,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="16.8">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="37" t="s">
         <v>157</v>
       </c>
@@ -17254,8 +17257,8 @@
       <c r="T41" s="25"/>
     </row>
     <row r="42" spans="1:20" ht="16.8">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="37"/>
       <c r="D42" s="69"/>
       <c r="E42" s="26"/>
@@ -17278,8 +17281,8 @@
       <c r="T42" s="25"/>
     </row>
     <row r="43" spans="1:20" ht="16.8">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="37" t="s">
         <v>157</v>
       </c>
@@ -17336,8 +17339,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="16.8">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="37"/>
       <c r="D44" s="69"/>
       <c r="E44" s="26"/>
@@ -17378,8 +17381,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.8">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="37" t="s">
         <v>158</v>
       </c>
@@ -17436,8 +17439,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="16.8">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="37" t="s">
         <v>159</v>
       </c>
@@ -17494,8 +17497,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="16.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="37" t="s">
         <v>160</v>
       </c>
@@ -17552,8 +17555,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="16.8">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="37" t="s">
         <v>160</v>
       </c>
@@ -17610,8 +17613,8 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="16.8">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="37" t="s">
         <v>160</v>
       </c>
@@ -17668,8 +17671,8 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="16.8">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="37"/>
       <c r="D50" s="69"/>
       <c r="E50" s="26"/>
@@ -17698,8 +17701,8 @@
       <c r="T50" s="25"/>
     </row>
     <row r="51" spans="1:20" ht="16.8">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="37" t="s">
         <v>161</v>
       </c>
@@ -17756,8 +17759,8 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="16.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="37" t="s">
         <v>162</v>
       </c>
@@ -17814,8 +17817,8 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="16.8">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="37"/>
       <c r="D53" s="29"/>
       <c r="E53" s="26"/>
@@ -17838,8 +17841,8 @@
       <c r="T53" s="25"/>
     </row>
     <row r="54" spans="1:20" ht="16.8">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="37" t="s">
         <v>163</v>
       </c>
@@ -17896,8 +17899,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="16.8">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="37" t="s">
         <v>164</v>
       </c>
@@ -17954,8 +17957,8 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="16.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="78"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="37"/>
       <c r="D56" s="30"/>
       <c r="E56" s="26"/>
@@ -17996,8 +17999,8 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="16.8">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="37" t="s">
         <v>165</v>
       </c>
@@ -18054,8 +18057,8 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="37" t="s">
         <v>166</v>
       </c>
@@ -18112,8 +18115,8 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="16.8">
-      <c r="A59" s="77"/>
-      <c r="B59" s="78"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="37" t="s">
         <v>167</v>
       </c>
@@ -18170,8 +18173,8 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="16.8">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="37" t="s">
         <v>168</v>
       </c>
@@ -18228,8 +18231,8 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="16.8">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="37" t="s">
         <v>168</v>
       </c>
@@ -18286,8 +18289,8 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="16.8">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="37" t="s">
         <v>168</v>
       </c>
@@ -18344,8 +18347,8 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="16.8">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="37"/>
       <c r="D63" s="29"/>
       <c r="E63" s="26"/>
@@ -18372,8 +18375,8 @@
       <c r="T63" s="25"/>
     </row>
     <row r="64" spans="1:20" ht="16.8">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78" t="s">
+      <c r="A64" s="89"/>
+      <c r="B64" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C64" s="37" t="s">
@@ -18432,8 +18435,8 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="16.8">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="37" t="s">
         <v>18</v>
       </c>
@@ -18490,8 +18493,8 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="16.8">
-      <c r="A66" s="77"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="37" t="s">
         <v>147</v>
       </c>
@@ -18548,8 +18551,8 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="16.8">
-      <c r="A67" s="77"/>
-      <c r="B67" s="78"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="37" t="s">
         <v>148</v>
       </c>
@@ -18606,8 +18609,8 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="16.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="37" t="s">
         <v>149</v>
       </c>
@@ -18664,8 +18667,8 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="16.8">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="37" t="s">
         <v>151</v>
       </c>
@@ -18722,8 +18725,8 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="16.8">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="37" t="s">
         <v>152</v>
       </c>
@@ -18780,8 +18783,8 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="16.8">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="37" t="s">
         <v>51</v>
       </c>
@@ -18838,8 +18841,8 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="16.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78" t="s">
+      <c r="A72" s="89"/>
+      <c r="B72" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C72" s="37" t="s">
@@ -18898,8 +18901,8 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="16.8">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="37" t="s">
         <v>18</v>
       </c>
@@ -18956,8 +18959,8 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="16.8">
-      <c r="A74" s="77"/>
-      <c r="B74" s="78"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="37" t="s">
         <v>147</v>
       </c>
@@ -19014,8 +19017,8 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="16.8">
-      <c r="A75" s="77"/>
-      <c r="B75" s="78"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="37" t="s">
         <v>148</v>
       </c>
@@ -19072,8 +19075,8 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="16.8">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="37"/>
       <c r="D76" s="32"/>
       <c r="E76" s="27"/>
@@ -19102,8 +19105,8 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="16.8">
-      <c r="A77" s="77"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="37" t="s">
         <v>149</v>
       </c>
@@ -19160,8 +19163,8 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="16.8">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="37"/>
       <c r="D78" s="32"/>
       <c r="E78" s="27"/>
@@ -19192,8 +19195,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.8">
-      <c r="A79" s="77"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="37" t="s">
         <v>151</v>
       </c>
@@ -19250,8 +19253,8 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="16.8">
-      <c r="A80" s="77"/>
-      <c r="B80" s="78"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="37" t="s">
         <v>152</v>
       </c>
@@ -19308,8 +19311,8 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="16.8">
-      <c r="A81" s="77"/>
-      <c r="B81" s="81" t="s">
+      <c r="A81" s="89"/>
+      <c r="B81" s="93" t="s">
         <v>59</v>
       </c>
       <c r="C81" s="37" t="s">
@@ -19368,8 +19371,8 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="16.8">
-      <c r="A82" s="77"/>
-      <c r="B82" s="81"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="37" t="s">
         <v>18</v>
       </c>
@@ -19426,8 +19429,8 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="16.8">
-      <c r="A83" s="77"/>
-      <c r="B83" s="81"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="93"/>
       <c r="C83" s="37" t="s">
         <v>147</v>
       </c>
@@ -19484,8 +19487,8 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="16.8">
-      <c r="A84" s="77"/>
-      <c r="B84" s="81"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="37" t="s">
         <v>148</v>
       </c>
@@ -19542,8 +19545,8 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="16.8">
-      <c r="A85" s="77"/>
-      <c r="B85" s="81"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="37" t="s">
         <v>149</v>
       </c>
@@ -19600,8 +19603,8 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="16.8">
-      <c r="A86" s="77"/>
-      <c r="B86" s="81"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="37" t="s">
         <v>151</v>
       </c>
@@ -19658,8 +19661,8 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="16.8">
-      <c r="A87" s="77"/>
-      <c r="B87" s="81"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="37" t="s">
         <v>152</v>
       </c>
@@ -19714,8 +19717,8 @@
       <c r="T87" s="25"/>
     </row>
     <row r="88" spans="1:20" ht="16.8">
-      <c r="A88" s="77"/>
-      <c r="B88" s="78" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="90" t="s">
         <v>170</v>
       </c>
       <c r="C88" s="37" t="s">
@@ -19774,8 +19777,8 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="16.8">
-      <c r="A89" s="77"/>
-      <c r="B89" s="78"/>
+      <c r="A89" s="89"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="37" t="s">
         <v>144</v>
       </c>
@@ -19832,17 +19835,17 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="16.8">
-      <c r="A90" s="77"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="39"/>
       <c r="C90" s="24"/>
       <c r="D90" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="82">
+      <c r="E90" s="94">
         <f>SUM(E17:E89)</f>
         <v>255</v>
       </c>
-      <c r="F90" s="83"/>
+      <c r="F90" s="95"/>
       <c r="G90" s="31">
         <f>SUM(G17:G89)</f>
         <v>233</v>
@@ -19906,11 +19909,11 @@
       <c r="D91" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="82">
+      <c r="E91" s="94">
         <f>SUM(F17:F89)</f>
         <v>432</v>
       </c>
-      <c r="F91" s="83"/>
+      <c r="F91" s="95"/>
       <c r="G91" s="31">
         <f>SUM(G17:G89)</f>
         <v>233</v>
@@ -19973,22 +19976,22 @@
       <c r="D95" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
-      <c r="H95" s="80"/>
-      <c r="I95" s="80"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="80"/>
-      <c r="M95" s="80"/>
-      <c r="N95" s="80"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="80"/>
-      <c r="Q95" s="80"/>
-      <c r="R95" s="80"/>
-      <c r="S95" s="80"/>
-      <c r="T95" s="80"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="92"/>
+      <c r="L95" s="92"/>
+      <c r="M95" s="92"/>
+      <c r="N95" s="92"/>
+      <c r="O95" s="92"/>
+      <c r="P95" s="92"/>
+      <c r="Q95" s="92"/>
+      <c r="R95" s="92"/>
+      <c r="S95" s="92"/>
+      <c r="T95" s="92"/>
     </row>
     <row r="96" spans="1:20" ht="33" customHeight="1">
       <c r="A96" s="1"/>
@@ -20056,11 +20059,11 @@
       <c r="D97" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="74">
+      <c r="E97" s="86">
         <f>E90</f>
         <v>255</v>
       </c>
-      <c r="F97" s="75"/>
+      <c r="F97" s="87"/>
       <c r="G97" s="21">
         <f>G90</f>
         <v>233</v>
@@ -20122,11 +20125,11 @@
       <c r="D98" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="74">
+      <c r="E98" s="86">
         <f>E91</f>
         <v>432</v>
       </c>
-      <c r="F98" s="75"/>
+      <c r="F98" s="87"/>
       <c r="G98" s="21">
         <f>G91</f>
         <v>233</v>
@@ -20186,6 +20189,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="B36:B63"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="A1:B1"/>
@@ -20202,16 +20215,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D95:T95"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="B36:B63"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="E91:F91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
